--- a/html/resources/aoiConditions/train2P2Block4.xlsx
+++ b/html/resources/aoiConditions/train2P2Block4.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
   </si>
 </sst>
 </file>
